--- a/outputs/2010-country_colors.xlsx
+++ b/outputs/2010-country_colors.xlsx
@@ -64,6 +64,12 @@
     <t>Belgium</t>
   </si>
   <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -85,12 +91,6 @@
     <t>Burundi</t>
   </si>
   <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>Canada</t>
   </si>
   <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
     <t>Central African Rep.</t>
   </si>
   <si>
@@ -118,12 +121,12 @@
     <t>Colombia</t>
   </si>
   <si>
+    <t>Comoros</t>
+  </si>
+  <si>
     <t>Congo</t>
   </si>
   <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -142,267 +145,264 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>Cape Verde</t>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Dem. Rep. Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Dominica</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>Dominican Rep.</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>eSwatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamacia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Melanesia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands (Kingdom of the)</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Polynesia</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
     <t>South Korea</t>
   </si>
   <si>
-    <t>Dem. Rep. Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>eSwatini</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamacia</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Melanesia</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands (Kingdom of the)</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Polynesia</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
@@ -526,70 +526,70 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>#a2baba</t>
+  </si>
+  <si>
+    <t>#d4ad89</t>
+  </si>
+  <si>
+    <t>#eeb68d</t>
+  </si>
+  <si>
+    <t>#746853</t>
+  </si>
+  <si>
+    <t>#eee6e1</t>
+  </si>
+  <si>
+    <t>#eec6a9</t>
+  </si>
+  <si>
+    <t>#a29a82</t>
+  </si>
+  <si>
+    <t>#d4dcdd</t>
+  </si>
+  <si>
+    <t>#7a766c</t>
+  </si>
+  <si>
+    <t>#e8a874</t>
+  </si>
+  <si>
+    <t>#9b8c6a</t>
+  </si>
+  <si>
+    <t>#b5966d</t>
+  </si>
+  <si>
+    <t>#ce9f70</t>
+  </si>
+  <si>
+    <t>#eed6c5</t>
+  </si>
+  <si>
+    <t>#a2cad6</t>
+  </si>
+  <si>
+    <t>#7a8688</t>
+  </si>
+  <si>
+    <t>#bcd3da</t>
+  </si>
+  <si>
+    <t>#d4bca5</t>
+  </si>
+  <si>
     <t>#7a96a4</t>
   </si>
   <si>
-    <t>#d4ad89</t>
-  </si>
-  <si>
-    <t>#eeb68d</t>
-  </si>
-  <si>
-    <t>#746853</t>
-  </si>
-  <si>
-    <t>#eee6e1</t>
-  </si>
-  <si>
-    <t>#eec6a9</t>
-  </si>
-  <si>
-    <t>#a29a82</t>
-  </si>
-  <si>
-    <t>#7a766c</t>
-  </si>
-  <si>
-    <t>#e8a874</t>
-  </si>
-  <si>
-    <t>#b5966d</t>
-  </si>
-  <si>
-    <t>#d4dcdd</t>
-  </si>
-  <si>
-    <t>#ce9f70</t>
-  </si>
-  <si>
-    <t>#eed6c5</t>
-  </si>
-  <si>
-    <t>#a2cad6</t>
-  </si>
-  <si>
     <t>#7aa6c0</t>
   </si>
   <si>
-    <t>#bcd3da</t>
-  </si>
-  <si>
-    <t>#d4bca5</t>
-  </si>
-  <si>
-    <t>#9b8c6a</t>
-  </si>
-  <si>
     <t>#bcb3a2</t>
   </si>
   <si>
     <t>#d4ccc1</t>
-  </si>
-  <si>
-    <t>#a2baba</t>
-  </si>
-  <si>
-    <t>#7a8688</t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>20.5</v>
+        <v>19.4</v>
       </c>
       <c r="C2">
         <v>29.09887359198999</v>
@@ -1000,7 +1000,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="C4">
         <v>66.19517259278484</v>
@@ -1014,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="C5">
         <v>99.38837920489296</v>
@@ -1028,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="C7">
         <v>67.6678445229682</v>
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>53.13190862196021</v>
@@ -1112,7 +1112,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1126,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>70.31450577663672</v>
@@ -1140,10 +1140,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>21.3</v>
+        <v>5.4</v>
       </c>
       <c r="C14">
-        <v>61.50159744408946</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>177</v>
@@ -1154,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C15">
-        <v>85.1129363449692</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1168,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>22.5</v>
+        <v>20.1</v>
       </c>
       <c r="C16">
-        <v>70.31450577663672</v>
+        <v>61.50159744408946</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1182,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>48.95428618665785</v>
+        <v>85.1129363449692</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1196,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>4.6</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>70.31450577663672</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>14.5</v>
+        <v>3.5</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>48.95428618665785</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1224,13 +1224,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="C20">
-        <v>66.66666666666666</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1238,10 +1238,10 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>5.8</v>
+        <v>15.1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>180</v>
@@ -1252,13 +1252,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1266,13 +1266,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="C23">
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1280,13 +1280,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="C24">
         <v>99.75961538461539</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1294,7 +1294,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1308,13 +1308,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1322,10 +1322,10 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>30.2</v>
+        <v>24.7</v>
       </c>
       <c r="C27">
-        <v>98.34710743801654</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>173</v>
@@ -1336,13 +1336,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>3.7</v>
+        <v>25.1</v>
       </c>
       <c r="C28">
-        <v>32.29675699689027</v>
+        <v>98.34710743801654</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1350,13 +1350,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="C29">
-        <v>0.6318424594703497</v>
+        <v>32.29675699689027</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1364,13 +1364,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>97.9457079970653</v>
+        <v>0.6318424594703497</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1378,10 +1378,10 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>11.3</v>
+        <v>4.7</v>
       </c>
       <c r="C31">
-        <v>99.00662251655629</v>
+        <v>97.9457079970653</v>
       </c>
       <c r="D31" t="s">
         <v>179</v>
@@ -1392,13 +1392,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>38.7</v>
+        <v>11.3</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>99.00662251655629</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1406,13 +1406,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>16.2</v>
+        <v>17.3</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1420,13 +1420,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>4.6</v>
+        <v>40.5</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1434,13 +1434,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1448,13 +1448,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>2.5</v>
+        <v>16.6</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1465,7 +1465,7 @@
         <v>2.5</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>174</v>
@@ -1476,13 +1476,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>89.01734104046243</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1490,122 +1490,122 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>89.01734104046243</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>99.75961538461539</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>41.6</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>58.44155844155844</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>4.2</v>
+        <v>29.6</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>98.46938775510205</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>26.5</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>13.5</v>
+        <v>19.9</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="C45">
-        <v>58.44155844155844</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>28.1</v>
+        <v>13.5</v>
       </c>
       <c r="C46">
-        <v>98.46938775510205</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>174</v>
@@ -1613,125 +1613,125 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>32.9</v>
+        <v>11.5</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>99.1304347826087</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="C49">
-        <v>99.1304347826087</v>
+        <v>59.89842049450242</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>5.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C50">
-        <v>59.89842049450242</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>9.9</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>2.5</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>19.7</v>
+        <v>21.9</v>
       </c>
       <c r="C53">
-        <v>100</v>
+        <v>37.98045602605863</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
-        <v>24.2</v>
+        <v>6.1</v>
       </c>
       <c r="C54">
-        <v>37.98045602605863</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>11.16564417177914</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>11.16564417177914</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
         <v>174</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="s">
         <v>174</v>
@@ -1753,178 +1753,178 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58">
-        <v>4.5</v>
+        <v>14.1</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
-        <v>16.6</v>
+        <v>6.8</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>94.98956158663883</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>94.98956158663883</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>26.6079295154185</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63">
-        <v>2.5</v>
+        <v>15.7</v>
       </c>
       <c r="C63">
-        <v>26.6079295154185</v>
+        <v>99.80952380952381</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64">
-        <v>15.8</v>
+        <v>17.4</v>
       </c>
       <c r="C64">
-        <v>99.80952380952381</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65">
-        <v>15.4</v>
+        <v>21</v>
       </c>
       <c r="C65">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66">
-        <v>23.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>9.4</v>
+        <v>41.1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68">
-        <v>41.8</v>
+        <v>15.9</v>
       </c>
       <c r="C68">
-        <v>100</v>
+        <v>99.67213114754099</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>16.4</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>99.67213114754099</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1949,293 +1949,293 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>2.5</v>
+        <v>14.8</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.01605552742407588</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73">
-        <v>15.7</v>
+        <v>13.1</v>
       </c>
       <c r="C73">
-        <v>0.01605552742407588</v>
+        <v>99.27847448891943</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="C74">
-        <v>99.27847448891943</v>
+        <v>11.55636363636364</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75">
-        <v>7.1</v>
+        <v>13.7</v>
       </c>
       <c r="C75">
-        <v>11.55636363636364</v>
+        <v>54.67436108821104</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76">
-        <v>14.7</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>54.67436108821104</v>
+        <v>65.79754601226993</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>65.79754601226993</v>
+        <v>94.19989642672191</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>94.19989642672191</v>
+        <v>41.76177191647646</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>41.76177191647646</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>92.03009614044866</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="C81">
-        <v>92.03009614044866</v>
+        <v>97.37156511350061</v>
       </c>
       <c r="D81" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="C82">
-        <v>97.37156511350061</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83">
-        <v>3.1</v>
+        <v>21.7</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>64.90747087045922</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84">
-        <v>21.3</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>64.90747087045922</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85">
-        <v>2.5</v>
+        <v>7.4</v>
       </c>
       <c r="C85">
-        <v>100</v>
+        <v>36.18524332810047</v>
       </c>
       <c r="D85" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>36.18524332810047</v>
+        <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87">
-        <v>14.5</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>86.12903225806451</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>86.12903225806451</v>
+        <v>81.13207547169812</v>
       </c>
       <c r="D89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90">
-        <v>11.8</v>
+        <v>6.6</v>
       </c>
       <c r="C90">
-        <v>81.13207547169812</v>
+        <v>93.24116743471582</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>93.24116743471582</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="D92" t="s">
         <v>174</v>
@@ -2243,41 +2243,41 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93">
-        <v>2.5</v>
+        <v>26.9</v>
       </c>
       <c r="C93">
-        <v>13.54166666666667</v>
+        <v>94.64285714285714</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94">
-        <v>28.3</v>
+        <v>13.6</v>
       </c>
       <c r="C94">
-        <v>94.64285714285714</v>
+        <v>98.84393063583815</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95">
-        <v>14.2</v>
+        <v>3.5</v>
       </c>
       <c r="C95">
-        <v>98.84393063583815</v>
+        <v>98.43945068664169</v>
       </c>
       <c r="D95" t="s">
         <v>179</v>
@@ -2285,405 +2285,405 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="C96">
-        <v>98.43945068664169</v>
+        <v>95.21531100478468</v>
       </c>
       <c r="D96" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>95.21531100478468</v>
+        <v>83.11688311688312</v>
       </c>
       <c r="D97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>83.11688311688312</v>
+        <v>99.4535519125683</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>99.4535519125683</v>
+        <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100">
-        <v>23</v>
+        <v>4.1</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>43.76977550097936</v>
       </c>
       <c r="D100" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101">
-        <v>4.4</v>
+        <v>17.1</v>
       </c>
       <c r="C101">
-        <v>43.76977550097936</v>
+        <v>31.41153081510934</v>
       </c>
       <c r="D101" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>31.41153081510934</v>
+        <v>99.39759036144579</v>
       </c>
       <c r="D102" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="C103">
-        <v>99.39759036144579</v>
+        <v>49.33499584372402</v>
       </c>
       <c r="D103" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104">
-        <v>5.1</v>
+        <v>22.2</v>
       </c>
       <c r="C104">
-        <v>49.33499584372402</v>
+        <v>96.77996422182468</v>
       </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105">
-        <v>19.7</v>
+        <v>11</v>
       </c>
       <c r="C105">
-        <v>96.77996422182468</v>
+        <v>55.08684863523573</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106">
-        <v>10.2</v>
+        <v>29.2</v>
       </c>
       <c r="C106">
-        <v>55.08684863523573</v>
+        <v>82.43243243243244</v>
       </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107">
-        <v>30.4</v>
+        <v>10.4</v>
       </c>
       <c r="C107">
-        <v>82.43243243243244</v>
+        <v>1.512287334593573</v>
       </c>
       <c r="D107" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108">
-        <v>10.1</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>1.512287334593573</v>
+        <v>86.0175546029802</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="C109">
-        <v>86.0175546029802</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>100</v>
+        <v>42.05729166666667</v>
       </c>
       <c r="D110" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111">
-        <v>2.5</v>
+        <v>19.5</v>
       </c>
       <c r="C111">
-        <v>42.05729166666667</v>
+        <v>100</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112">
-        <v>19.9</v>
+        <v>15.9</v>
       </c>
       <c r="C112">
-        <v>100</v>
+        <v>97.68518518518519</v>
       </c>
       <c r="D112" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113">
-        <v>15.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C113">
-        <v>97.68518518518519</v>
+        <v>97.35322425409048</v>
       </c>
       <c r="D113" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="C114">
-        <v>97.35322425409048</v>
+        <v>34.23180592991914</v>
       </c>
       <c r="D114" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>34.23180592991914</v>
+        <v>83.38353413654619</v>
       </c>
       <c r="D115" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="C116">
-        <v>83.38353413654619</v>
+        <v>99.74025974025975</v>
       </c>
       <c r="D116" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117">
-        <v>5.6</v>
+        <v>14.9</v>
       </c>
       <c r="C117">
-        <v>99.74025974025975</v>
+        <v>0.8205782312925171</v>
       </c>
       <c r="D117" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118">
-        <v>10.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119">
-        <v>26.1</v>
+        <v>29.2</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120">
-        <v>15.1</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>0.8205782312925171</v>
+        <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121">
-        <v>4.7</v>
+        <v>8.5</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>88.2573726541555</v>
       </c>
       <c r="D121" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122">
-        <v>8.4</v>
+        <v>13.1</v>
       </c>
       <c r="C122">
-        <v>88.2573726541555</v>
+        <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123">
-        <v>12.3</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>6.310583580613255</v>
       </c>
       <c r="D123" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>6.310583580613255</v>
+        <v>0</v>
       </c>
       <c r="D124" t="s">
         <v>174</v>
@@ -2691,66 +2691,66 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>95.83959899749374</v>
       </c>
       <c r="D125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>95.83959899749374</v>
+        <v>99.1665509098486</v>
       </c>
       <c r="D126" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127">
-        <v>39.7</v>
+        <v>12.5</v>
       </c>
       <c r="C127">
-        <v>99.1665509098486</v>
+        <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128">
-        <v>12.2</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2761,111 +2761,111 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130">
-        <v>2.5</v>
+        <v>35.7</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="D130" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131">
-        <v>30.3</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>86.95652173913044</v>
+        <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132">
-        <v>6.3</v>
+        <v>4.1</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133">
-        <v>5.4</v>
+        <v>16.5</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134">
-        <v>15.4</v>
+        <v>7.8</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>58.84685784014643</v>
       </c>
       <c r="D134" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135">
-        <v>8.300000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="C135">
-        <v>58.84685784014643</v>
+        <v>100</v>
       </c>
       <c r="D135" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136">
-        <v>10.8</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="s">
         <v>174</v>
@@ -2873,69 +2873,69 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B139">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>54.46428571428571</v>
       </c>
       <c r="D139" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140">
-        <v>2.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C140">
-        <v>54.46428571428571</v>
+        <v>99.32432432432432</v>
       </c>
       <c r="D140" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141">
-        <v>70.09999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="C141">
-        <v>99.32432432432432</v>
+        <v>51.94127243066884</v>
       </c>
       <c r="D141" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>51.94127243066884</v>
+        <v>43.29041487839771</v>
       </c>
       <c r="D142" t="s">
         <v>175</v>
@@ -2943,167 +2943,167 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143">
-        <v>2.5</v>
+        <v>10.5</v>
       </c>
       <c r="C143">
-        <v>43.29041487839771</v>
+        <v>100</v>
       </c>
       <c r="D143" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>7.9</v>
       </c>
       <c r="C144">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B146">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>56.33333333333334</v>
       </c>
       <c r="D146" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="C147">
-        <v>56.33333333333334</v>
+        <v>24.92136462617953</v>
       </c>
       <c r="D147" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148">
-        <v>4.7</v>
+        <v>24.9</v>
       </c>
       <c r="C148">
-        <v>24.92136462617953</v>
+        <v>46.55975168132437</v>
       </c>
       <c r="D148" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149">
-        <v>26.8</v>
+        <v>10.1</v>
       </c>
       <c r="C149">
-        <v>46.55975168132437</v>
+        <v>99.94887525562373</v>
       </c>
       <c r="D149" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150">
-        <v>9.6</v>
+        <v>20.3</v>
       </c>
       <c r="C150">
-        <v>99.94887525562373</v>
+        <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151">
-        <v>21.2</v>
+        <v>8.1</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>92.71523178807946</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152">
-        <v>11</v>
+        <v>3.7</v>
       </c>
       <c r="C152">
-        <v>92.71523178807946</v>
+        <v>75.51385165326184</v>
       </c>
       <c r="D152" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>75.51385165326184</v>
+        <v>8.527059698716757</v>
       </c>
       <c r="D153" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B154">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="C154">
-        <v>8.527059698716757</v>
+        <v>3.464052287581699</v>
       </c>
       <c r="D154" t="s">
         <v>174</v>
@@ -3111,94 +3111,94 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B155">
-        <v>5.9</v>
+        <v>20.4</v>
       </c>
       <c r="C155">
-        <v>3.464052287581699</v>
+        <v>94.60916442048517</v>
       </c>
       <c r="D155" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B156">
-        <v>18.4</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>94.60916442048517</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B157">
-        <v>2.5</v>
+        <v>7.1</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D157" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B158">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="C158">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B159">
-        <v>2.5</v>
+        <v>24.1</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>94.45438282647585</v>
       </c>
       <c r="D159" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B160">
-        <v>23.8</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>94.45438282647585</v>
+        <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B161">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -3209,13 +3209,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B162">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>18.79138076321175</v>
       </c>
       <c r="D162" t="s">
         <v>174</v>
@@ -3223,72 +3223,72 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B163">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>18.79138076321175</v>
+        <v>100</v>
       </c>
       <c r="D163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B164">
-        <v>2.5</v>
+        <v>10.5</v>
       </c>
       <c r="C164">
-        <v>100</v>
+        <v>99.16317991631799</v>
       </c>
       <c r="D164" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="C165">
-        <v>99.16317991631799</v>
+        <v>91.49277688603532</v>
       </c>
       <c r="D165" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B166">
-        <v>25.1</v>
+        <v>42.7</v>
       </c>
       <c r="C166">
-        <v>91.49277688603532</v>
+        <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B167">
-        <v>44.1</v>
+        <v>26.2</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>97.10144927536231</v>
       </c>
       <c r="D167" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3296,7 +3296,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C168">
         <v>97.10144927536231</v>

--- a/outputs/2010-country_colors.xlsx
+++ b/outputs/2010-country_colors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="179">
   <si>
     <t>Country</t>
   </si>
@@ -526,13 +526,13 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>#a2baba</t>
-  </si>
-  <si>
-    <t>#d4ad89</t>
-  </si>
-  <si>
-    <t>#eeb68d</t>
+    <t>#7a8688</t>
+  </si>
+  <si>
+    <t>#b5966d</t>
+  </si>
+  <si>
+    <t>#e8a874</t>
   </si>
   <si>
     <t>#746853</t>
@@ -541,55 +541,16 @@
     <t>#eee6e1</t>
   </si>
   <si>
+    <t>#bcd3da</t>
+  </si>
+  <si>
     <t>#eec6a9</t>
   </si>
   <si>
-    <t>#a29a82</t>
-  </si>
-  <si>
-    <t>#d4dcdd</t>
-  </si>
-  <si>
-    <t>#7a766c</t>
-  </si>
-  <si>
-    <t>#e8a874</t>
-  </si>
-  <si>
-    <t>#9b8c6a</t>
-  </si>
-  <si>
-    <t>#b5966d</t>
-  </si>
-  <si>
-    <t>#ce9f70</t>
-  </si>
-  <si>
-    <t>#eed6c5</t>
-  </si>
-  <si>
-    <t>#a2cad6</t>
-  </si>
-  <si>
-    <t>#7a8688</t>
-  </si>
-  <si>
-    <t>#bcd3da</t>
-  </si>
-  <si>
-    <t>#d4bca5</t>
-  </si>
-  <si>
-    <t>#7a96a4</t>
-  </si>
-  <si>
     <t>#7aa6c0</t>
   </si>
   <si>
     <t>#bcb3a2</t>
-  </si>
-  <si>
-    <t>#d4ccc1</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1051,7 @@
         <v>53.13190862196021</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1104,7 +1065,7 @@
         <v>78.00959232613909</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1146,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1160,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1174,7 +1135,7 @@
         <v>61.50159744408946</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1188,7 +1149,7 @@
         <v>85.1129363449692</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1202,7 +1163,7 @@
         <v>70.31450577663672</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1216,7 +1177,7 @@
         <v>48.95428618665785</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1244,7 +1205,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1272,7 +1233,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1286,7 +1247,7 @@
         <v>99.75961538461539</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1356,7 +1317,7 @@
         <v>32.29675699689027</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1384,7 +1345,7 @@
         <v>97.9457079970653</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1398,7 +1359,7 @@
         <v>99.00662251655629</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1412,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1454,7 +1415,7 @@
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1496,7 +1457,7 @@
         <v>89.01734104046243</v>
       </c>
       <c r="D39" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1524,7 +1485,7 @@
         <v>58.44155844155844</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1566,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1594,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1622,7 +1583,7 @@
         <v>99.1304347826087</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1636,7 +1597,7 @@
         <v>59.89842049450242</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1650,7 +1611,7 @@
         <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1692,7 +1653,7 @@
         <v>37.98045602605863</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1706,7 +1667,7 @@
         <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1720,7 +1681,7 @@
         <v>11.16564417177914</v>
       </c>
       <c r="D55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1762,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1776,7 +1737,7 @@
         <v>94.98956158663883</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1804,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1818,7 +1779,7 @@
         <v>26.6079295154185</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1832,7 +1793,7 @@
         <v>99.80952380952381</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1846,7 +1807,7 @@
         <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1860,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1874,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1902,7 +1863,7 @@
         <v>99.67213114754099</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1958,7 +1919,7 @@
         <v>0.01605552742407588</v>
       </c>
       <c r="D72" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1972,7 +1933,7 @@
         <v>99.27847448891943</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1986,7 +1947,7 @@
         <v>11.55636363636364</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2000,7 +1961,7 @@
         <v>54.67436108821104</v>
       </c>
       <c r="D75" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2028,7 +1989,7 @@
         <v>94.19989642672191</v>
       </c>
       <c r="D77" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2042,7 +2003,7 @@
         <v>41.76177191647646</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2070,7 +2031,7 @@
         <v>92.03009614044866</v>
       </c>
       <c r="D80" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2084,7 +2045,7 @@
         <v>97.37156511350061</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2112,7 +2073,7 @@
         <v>64.90747087045922</v>
       </c>
       <c r="D83" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2126,7 +2087,7 @@
         <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2140,7 +2101,7 @@
         <v>36.18524332810047</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2182,7 +2143,7 @@
         <v>86.12903225806451</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2196,7 +2157,7 @@
         <v>81.13207547169812</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2210,7 +2171,7 @@
         <v>93.24116743471582</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2238,7 +2199,7 @@
         <v>13.54166666666667</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2266,7 +2227,7 @@
         <v>98.84393063583815</v>
       </c>
       <c r="D94" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2280,7 +2241,7 @@
         <v>98.43945068664169</v>
       </c>
       <c r="D95" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2294,7 +2255,7 @@
         <v>95.21531100478468</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2308,7 +2269,7 @@
         <v>83.11688311688312</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2322,7 +2283,7 @@
         <v>99.4535519125683</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2350,7 +2311,7 @@
         <v>43.76977550097936</v>
       </c>
       <c r="D100" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2378,7 +2339,7 @@
         <v>99.39759036144579</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2392,7 +2353,7 @@
         <v>49.33499584372402</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2420,7 +2381,7 @@
         <v>55.08684863523573</v>
       </c>
       <c r="D105" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2448,7 +2409,7 @@
         <v>1.512287334593573</v>
       </c>
       <c r="D107" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2462,7 +2423,7 @@
         <v>86.0175546029802</v>
       </c>
       <c r="D108" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2476,7 +2437,7 @@
         <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2490,7 +2451,7 @@
         <v>42.05729166666667</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2504,7 +2465,7 @@
         <v>100</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2518,7 +2479,7 @@
         <v>97.68518518518519</v>
       </c>
       <c r="D112" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2532,7 +2493,7 @@
         <v>97.35322425409048</v>
       </c>
       <c r="D113" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2546,7 +2507,7 @@
         <v>34.23180592991914</v>
       </c>
       <c r="D114" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2560,7 +2521,7 @@
         <v>83.38353413654619</v>
       </c>
       <c r="D115" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2574,7 +2535,7 @@
         <v>99.74025974025975</v>
       </c>
       <c r="D116" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2588,7 +2549,7 @@
         <v>0.8205782312925171</v>
       </c>
       <c r="D117" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2602,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2616,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2644,7 +2605,7 @@
         <v>88.2573726541555</v>
       </c>
       <c r="D121" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2658,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2700,7 +2661,7 @@
         <v>95.83959899749374</v>
       </c>
       <c r="D125" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2714,7 +2675,7 @@
         <v>99.1665509098486</v>
       </c>
       <c r="D126" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2728,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2784,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2812,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2826,7 +2787,7 @@
         <v>58.84685784014643</v>
       </c>
       <c r="D134" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2840,7 +2801,7 @@
         <v>100</v>
       </c>
       <c r="D135" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2882,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2896,7 +2857,7 @@
         <v>54.46428571428571</v>
       </c>
       <c r="D139" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2924,7 +2885,7 @@
         <v>51.94127243066884</v>
       </c>
       <c r="D141" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2938,7 +2899,7 @@
         <v>43.29041487839771</v>
       </c>
       <c r="D142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2952,7 +2913,7 @@
         <v>100</v>
       </c>
       <c r="D143" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2966,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2994,7 +2955,7 @@
         <v>56.33333333333334</v>
       </c>
       <c r="D146" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3008,7 +2969,7 @@
         <v>24.92136462617953</v>
       </c>
       <c r="D147" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3022,7 +2983,7 @@
         <v>46.55975168132437</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3036,7 +2997,7 @@
         <v>99.94887525562373</v>
       </c>
       <c r="D149" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3050,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3064,7 +3025,7 @@
         <v>92.71523178807946</v>
       </c>
       <c r="D151" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3148,7 +3109,7 @@
         <v>100</v>
       </c>
       <c r="D157" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3218,7 +3179,7 @@
         <v>18.79138076321175</v>
       </c>
       <c r="D162" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3232,7 +3193,7 @@
         <v>100</v>
       </c>
       <c r="D163" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3246,7 +3207,7 @@
         <v>99.16317991631799</v>
       </c>
       <c r="D164" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3274,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:4">
